--- a/GUI designe/点菜预约列表.xlsx
+++ b/GUI designe/点菜预约列表.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>湛淑兰</t>
   </si>
@@ -87,6 +88,12 @@
   <si>
     <t>免汁</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南非</t>
+  </si>
+  <si>
+    <t>龙井虾仁</t>
   </si>
 </sst>
 </file>
@@ -448,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="C9:F14"/>
     </sheetView>
   </sheetViews>
@@ -547,4 +554,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C9:F14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>